--- a/data/trans_camb/P52_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,26</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,35</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 73,29</t>
+          <t>3,92; 36,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 39,27</t>
+          <t>-7,18; 13,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 46,42</t>
+          <t>-7,21; 26,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 33,06</t>
+          <t>-18,37; 8,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 52,75</t>
+          <t>1,32; 26,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 22,77</t>
+          <t>-11,23; 7,73</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>191,5%</t>
+          <t>535,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>80,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-26,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>168,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-8,69%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,48; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,14; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 288,46</t>
+          <t>-48,86; 664,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 228,31</t>
+          <t>-100,0; 296,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 326,59</t>
+          <t>-11,57; 656,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 137,79</t>
+          <t>-79,8; 245,88</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>5,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 31,45</t>
+          <t>-19,06; 11,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 37,75</t>
+          <t>-12,0; 51,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 29,82</t>
+          <t>-12,37; 14,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 26,05</t>
+          <t>-11,98; 13,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 21,22</t>
+          <t>-11,08; 9,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 26,23</t>
+          <t>-6,78; 28,24</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,43%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>-10,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>39,46%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 94,18</t>
+          <t>-82,28; 177,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 138,26</t>
+          <t>-73,24; 1990,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 132,09</t>
+          <t>-59,15; 163,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 111,36</t>
+          <t>-61,33; 152,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 61,01</t>
+          <t>-56,83; 99,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 85,17</t>
+          <t>-46,44; 391,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,55</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>5,76</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 33,22</t>
+          <t>-5,48; 20,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 17,48</t>
+          <t>-7,62; 18,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 30,39</t>
+          <t>0,78; 17,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 25,74</t>
+          <t>-1,51; 13,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 27,26</t>
+          <t>1,3; 15,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 10,07</t>
+          <t>-2,33; 12,7</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,0%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>129,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>113,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>74,93%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 83,15</t>
+          <t>-55,99; 661,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 52,27</t>
+          <t>-64,66; 509,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 62,86</t>
+          <t>0,82; 432,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 52,51</t>
+          <t>-22,52; 373,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 54,18</t>
+          <t>4,61; 310,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 19,7</t>
+          <t>-22,31; 261,14</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>1,96</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 41,54</t>
+          <t>-6,58; 10,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 16,35</t>
+          <t>-10,26; 4,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 23,87</t>
+          <t>-2,52; 15,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 23,68</t>
+          <t>-2,41; 14,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 21,84</t>
+          <t>-2,29; 10,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 14,52</t>
+          <t>-3,99; 7,7</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-34,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,36%</t>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 145,02</t>
+          <t>-65,59; 349,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 52,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 52,58</t>
+          <t>-23,14; 264,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 52,5</t>
+          <t>-23,03; 244,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 47,95</t>
+          <t>-21,96; 167,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 31,55</t>
+          <t>-39,22; 123,65</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-12,63</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-15,8</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-14,38</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 36,08</t>
+          <t>-11,14; 12,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 23,96</t>
+          <t>-11,2; 11,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 42,61</t>
+          <t>-6,96; 17,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 19,32</t>
+          <t>-10,6; 8,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 28,49</t>
+          <t>-5,37; 11,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 7,98</t>
+          <t>-7,94; 7,37</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,14%</t>
+          <t>-4,35%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 76,7</t>
+          <t>-66,04; 185,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 41,75</t>
+          <t>-65,26; 200,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 84,38</t>
+          <t>-57,06; 401,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 34,29</t>
+          <t>-85,33; 272,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 50,07</t>
+          <t>-39,35; 170,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 12,47</t>
+          <t>-59,01; 108,16</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-18,59</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-49,27</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-27,11</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-40,51</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-29,95</t>
+          <t>1,88</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>0,0; 19,49</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-90,31; 7,99</t>
+          <t>0,0; 16,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-72,03; 26,95</t>
+          <t>0,0; 11,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-82,46; 11,83</t>
+          <t>1,48; 12,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 19,86</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-36,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-52,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-38,7%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-96,37; 16,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 62,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 20,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,2; 50,36</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 25,3</t>
+          <t>-0,78; 9,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 6,4</t>
+          <t>-2,32; 14,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 14,71</t>
+          <t>2,04; 11,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 8,87</t>
+          <t>-1,53; 6,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 15,39</t>
+          <t>2,0; 8,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 3,85</t>
+          <t>-0,42; 9,28</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-15,52%</t>
+          <t>31,35%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 56,45</t>
+          <t>-10,1; 156,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 13,55</t>
+          <t>-28,01; 217,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 31,02</t>
+          <t>18,63; 160,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 19,57</t>
+          <t>-14,38; 102,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 31,64</t>
+          <t>21,05; 131,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 7,74</t>
+          <t>-6,21; 122,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
